--- a/test/Workbook1.xlsx
+++ b/test/Workbook1.xlsx
@@ -255,7 +255,6 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
